--- a/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1360E74-2FEF-4A1E-AD92-06E28BD68472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D53127-334B-472F-B5A0-CACB55A02874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D53127-334B-472F-B5A0-CACB55A02874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F80420-E856-4A54-98BD-9CA52E1860D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="9" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="10" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="11" r:id="rId4"/>
+    <sheet name="Norway" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -79,6 +82,24 @@
   </si>
   <si>
     <t>NGC-3463/T1198/T1216</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2010</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2028</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1933</t>
   </si>
 </sst>
 </file>
@@ -502,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -690,4 +711,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF7295C-54CA-4562-ADA3-DD6860A211A7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F900A8CA-4379-48DE-824D-4955D9CF1265}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F5F540-E699-428C-9DCD-AEF059EEEEF3}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F80420-E856-4A54-98BD-9CA52E1860D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7023F-5599-419B-9DED-C37E1918CAAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Denmark" sheetId="10" r:id="rId3"/>
     <sheet name="Sweden" sheetId="11" r:id="rId4"/>
     <sheet name="Norway" sheetId="12" r:id="rId5"/>
+    <sheet name="Italy" sheetId="14" r:id="rId6"/>
+    <sheet name="Spain" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -100,6 +102,18 @@
   </si>
   <si>
     <t>NGC-3464/T1933</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2131</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1973</t>
   </si>
 </sst>
 </file>
@@ -911,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F5F540-E699-428C-9DCD-AEF059EEEEF3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1002,4 +1016,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EAD5BD-2AC2-4DAE-9958-CE3EAA5E11A2}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BE1B83-8491-40F3-AEB6-DDECC9CDEE88}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7023F-5599-419B-9DED-C37E1918CAAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36CB1B-9529-4329-BAF2-C6EB3C292D28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Norway" sheetId="12" r:id="rId5"/>
     <sheet name="Italy" sheetId="14" r:id="rId6"/>
     <sheet name="Spain" sheetId="13" r:id="rId7"/>
+    <sheet name="Romania" sheetId="15" r:id="rId8"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -114,6 +116,18 @@
   </si>
   <si>
     <t>NGC-3443/T1973</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3532/T3545</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3565/T3577</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EAD5BD-2AC2-4DAE-9958-CE3EAA5E11A2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1210,4 +1224,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A1085-2D8A-4E36-B53E-636A3D8D3CE6}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0E9E8A-11CB-4841-9EB4-E83D2930C633}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36CB1B-9529-4329-BAF2-C6EB3C292D28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C6835F-812B-431C-A08B-0551F4278722}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Spain" sheetId="13" r:id="rId7"/>
     <sheet name="Romania" sheetId="15" r:id="rId8"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -128,6 +129,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3596/T3621</t>
   </si>
 </sst>
 </file>
@@ -644,6 +651,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F8F290-1562-4716-BAC1-554B3E487933}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA4856-7156-43E1-9547-9AFAE662EBF4}">
   <dimension ref="A1:D10"/>
@@ -1327,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0E9E8A-11CB-4841-9EB4-E83D2930C633}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FC600_FC700_Series_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C6835F-812B-431C-A08B-0551F4278722}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F804AEC-BD3F-4CBF-BB6A-D39BD7C3D395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>NGC-3445/T1640/T1652/T2146</t>
   </si>
   <si>
-    <t>NGC-3463/T1198/T1216</t>
-  </si>
-  <si>
     <t>Denmark Market</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>NGC-4308/T3596/T3621</t>
+  </si>
+  <si>
+    <t>NGC-3003 and NGC-3463/T1198/T1216/T3837</t>
   </si>
 </sst>
 </file>
@@ -558,103 +558,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F8F290-1562-4716-BAC1-554B3E487933}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -680,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -701,8 +604,105 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F8F290-1562-4716-BAC1-554B3E487933}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -896,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -993,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1187,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1262,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1381,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1478,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
